--- a/Lab3/Denormalize.xlsx
+++ b/Lab3/Denormalize.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labfiles\Lab03\Starter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\index\Documents\GitHub\ITMO.10985-Introduction_to_SQL_Databases\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D70DB3-2236-48F3-8F8C-027772ACA6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="818" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>OrderID</t>
   </si>
@@ -128,43 +129,11 @@
   <si>
     <t xml:space="preserve">SalesAmount column added </t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OrderDetails</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table</t>
-    </r>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>UnitPrice</t>
-  </si>
-  <si>
-    <t>ProductID (Key)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
@@ -221,9 +190,34 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -234,6 +228,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2405BEC5-A0A7-4006-91F5-CF1260100073}" name="Таблица2" displayName="Таблица2" ref="E3:E6" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="E3:E6" xr:uid="{789864AA-39F8-4714-A33C-76F6798C2D99}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{87FF6718-9387-470D-87AC-5CECB4A36E13}" name="SalesAmount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -635,10 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -652,12 +658,12 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
@@ -667,8 +673,11 @@
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -678,8 +687,11 @@
       <c r="D4">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -689,8 +701,11 @@
       <c r="D5">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>17.489999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -700,122 +715,24 @@
       <c r="D6">
         <v>302</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="E6">
         <v>5.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab3/Denormalize.xlsx
+++ b/Lab3/Denormalize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\index\Documents\GitHub\ITMO.10985-Introduction_to_SQL_Databases\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D70DB3-2236-48F3-8F8C-027772ACA6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EAE5A0-60FD-4524-98D6-DD001DF422A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" tabRatio="818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B10" sqref="B10:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
